--- a/output.xlsx
+++ b/output.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="First Ten Rows" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ten Rows Of Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,4 +740,319 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Maturity Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coupon</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price Bid</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Price Ask</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Bid Size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ask Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS BILLS ZERO CPN       0.00000% 01/28/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99.929</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99.93000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS BILLS ZERO CPN       0.00000% 01/30/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99.90600000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>99.907</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS SER U-2025          1.37500% 01/31/2025 NTS NOTE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99.92100000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99.934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS SER AW-2025         4.12500% 01/31/2025 NTS NOTE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.988</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS SER G-2025          2.50000% 01/31/2025 NTS NOTE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.953</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99.965</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS BILLS ZERO CPN       0.00000% 02/04/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.84699999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.848</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS BILLS ZERO CPN       0.00000% 02/06/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>99.82299999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.825</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS BILLS ZERO CPN       0.00000% 02/11/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>99.765</v>
+      </c>
+      <c r="E9" t="n">
+        <v>99.76600000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UNITED STATES TREAS BILLS ZERO CPN       0.00000% 02/13/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99.73999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>99.742</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45703</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>U S TREAS SEC       STRIPPED INT PMT     0.00000% 02/15/2025ZERO CPN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99.751</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>